--- a/src/main/resources/190-wanxin-p2p/wanxinp2p-repayment-service_structure.xlsx
+++ b/src/main/resources/190-wanxin-p2p/wanxinp2p-repayment-service_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="221">
   <si>
     <t>类名</t>
   </si>
@@ -340,81 +340,84 @@
     <t>com.wanxin.repayment.message.RepaymentProducer</t>
   </si>
   <si>
+    <t>confirmRepayment(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.repayment.model.RepaymentRequest)</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.message.ConfirmRepaymentConsumer</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.message.ConfirmRepaymentTransactionListener</t>
+  </si>
+  <si>
+    <t>executeLocalTransaction(org.springframework.messaging.Message,java.lang.Object)</t>
+  </si>
+  <si>
+    <t>org.apache.rocketmq.spring.core.RocketMQLocalTransactionState</t>
+  </si>
+  <si>
+    <t>checkLocalTransaction(org.springframework.messaging.Message)</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.utils.RepaymentUtil</t>
+  </si>
+  <si>
+    <t>getCapitalTotalInterest(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getCapitalInterestList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>java.util.Map</t>
+  </si>
+  <si>
+    <t>getCapitalAmountList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getCapitalPrincipal(java.math.BigDecimal,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getRepaymentAmount(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getRepaymentPrincipalList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getRepaymentTotalAmount(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>getRepaymentList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>fixedCapital(java.math.BigDecimal,java.math.BigDecimal,java.lang.Integer,java.math.BigDecimal)</t>
+  </si>
+  <si>
+    <t>com.wanxin.api.repayment.model.EqualPrincipalRepayment</t>
+  </si>
+  <si>
+    <t>fixedRepayment(java.math.BigDecimal,java.math.BigDecimal,java.lang.Integer,java.math.BigDecimal)</t>
+  </si>
+  <si>
+    <t>com.wanxin.api.repayment.model.EqualInterestRepayment</t>
+  </si>
+  <si>
+    <t>getRepaymentTotalInterest(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgentConfiguration</t>
+  </si>
+  <si>
+    <t>depositoryAgentApiAgentFallback()</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgentFallback</t>
+  </si>
+  <si>
+    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgent</t>
+  </si>
+  <si>
     <t>confirmRepayment(com.wanxin.api.repayment.model.RepaymentRequest)</t>
   </si>
   <si>
-    <t>com.wanxin.repayment.message.ConfirmRepaymentConsumer</t>
-  </si>
-  <si>
-    <t>com.wanxin.repayment.message.ConfirmRepaymentTransactionListener</t>
-  </si>
-  <si>
-    <t>executeLocalTransaction(org.springframework.messaging.Message)</t>
-  </si>
-  <si>
-    <t>org.apache.rocketmq.spring.core.RocketMQLocalTransactionState</t>
-  </si>
-  <si>
-    <t>checkLocalTransaction(org.springframework.messaging.Message)</t>
-  </si>
-  <si>
-    <t>com.wanxin.repayment.utils.RepaymentUtil</t>
-  </si>
-  <si>
-    <t>getCapitalTotalInterest(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getCapitalInterestList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>java.util.Map</t>
-  </si>
-  <si>
-    <t>getCapitalAmountList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getCapitalPrincipal(java.math.BigDecimal,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getRepaymentAmount(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getRepaymentPrincipalList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getRepaymentTotalAmount(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>getRepaymentList(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>fixedCapital(java.math.BigDecimal,java.math.BigDecimal,java.lang.Integer,java.math.BigDecimal)</t>
-  </si>
-  <si>
-    <t>com.wanxin.api.repayment.model.EqualPrincipalRepayment</t>
-  </si>
-  <si>
-    <t>fixedRepayment(java.math.BigDecimal,java.math.BigDecimal,java.lang.Integer,java.math.BigDecimal)</t>
-  </si>
-  <si>
-    <t>com.wanxin.api.repayment.model.EqualInterestRepayment</t>
-  </si>
-  <si>
-    <t>getRepaymentTotalInterest(java.math.BigDecimal,java.lang.Double,java.lang.Integer)</t>
-  </si>
-  <si>
-    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgentConfiguration</t>
-  </si>
-  <si>
-    <t>depositoryAgentApiAgentFallback()</t>
-  </si>
-  <si>
-    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgentFallback</t>
-  </si>
-  <si>
-    <t>com.wanxin.repayment.agent.DepositoryAgentApiAgent</t>
-  </si>
-  <si>
     <t>com.wanxin.common.domain.RestResponse</t>
   </si>
   <si>
@@ -433,7 +436,7 @@
     <t>startRepayment(com.wanxin.api.transaction.model.ProjectWithTendersDTO)</t>
   </si>
   <si>
-    <t>invokeConfirmRepayment(com.wanxin.api.repayment.model.RepaymentRequest)</t>
+    <t>invokeConfirmRepayment(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.repayment.model.RepaymentRequest)</t>
   </si>
   <si>
     <t>saveRepaymentDetail(com.wanxin.repayment.entity.RepaymentPlan)</t>
@@ -454,19 +457,19 @@
     <t>lambda$confirmRepayment$2(com.wanxin.repayment.entity.ReceivablePlan)</t>
   </si>
   <si>
-    <t>saveReceivablePlan(com.wanxin.api.transaction.model.TenderDTO)</t>
-  </si>
-  <si>
-    <t>lambda$startRepayment$4(com.wanxin.api.transaction.model.TenderDTO)</t>
-  </si>
-  <si>
-    <t>lambda$startRepayment$5(com.wanxin.api.transaction.model.ProjectWithTendersDTO)</t>
+    <t>saveReceivablePlan(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.transaction.model.TenderDTO,com.wanxin.api.repayment.model.EqualInterestRepayment)</t>
+  </si>
+  <si>
+    <t>lambda$startRepayment$4(com.wanxin.api.transaction.model.TenderDTO,com.wanxin.api.repayment.model.EqualInterestRepayment,com.wanxin.repayment.entity.RepaymentPlan)</t>
+  </si>
+  <si>
+    <t>lambda$startRepayment$5(java.lang.Integer,com.wanxin.api.transaction.model.ProjectWithTendersDTO,java.util.List,com.wanxin.api.transaction.model.TenderDTO)</t>
   </si>
   <si>
     <t>lambda$executeRepayment$0(com.wanxin.api.repayment.model.RepaymentPlanDTO)</t>
   </si>
   <si>
-    <t>lambda$saveRepaymentPlan$6(com.wanxin.api.transaction.model.ProjectDTO)</t>
+    <t>lambda$saveRepaymentPlan$6(com.wanxin.api.transaction.model.ProjectDTO,java.util.Map,java.util.Map,java.util.List,java.lang.Integer,java.math.BigDecimal)</t>
   </si>
   <si>
     <t>convertDto2Entity(com.wanxin.api.repayment.model.RepaymentPlanDTO)</t>
@@ -487,7 +490,7 @@
     <t>$deserializeLambda$(java.lang.invoke.SerializedLambda)</t>
   </si>
   <si>
-    <t>saveRepaymentPlan(com.wanxin.api.transaction.model.ProjectDTO)</t>
+    <t>saveRepaymentPlan(com.wanxin.api.transaction.model.ProjectDTO,com.wanxin.api.repayment.model.EqualInterestRepayment)</t>
   </si>
   <si>
     <t>generateUserAutoPreTransactionRequest(com.wanxin.repayment.entity.RepaymentPlan,java.lang.String)</t>
@@ -499,7 +502,7 @@
     <t>com.wanxin.repayment.interceptor.TokenInterceptor</t>
   </si>
   <si>
-    <t>preHandle(javax.servlet.http.HttpServletRequest)</t>
+    <t>preHandle(javax.servlet.http.HttpServletRequest,javax.servlet.http.HttpServletResponse,java.lang.Object)</t>
   </si>
   <si>
     <t>字段名</t>
@@ -661,28 +664,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>invokeConfirmRepayment(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.repayment.model.RepaymentRequest)</t>
-  </si>
-  <si>
-    <t>confirmRepayment(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.repayment.model.RepaymentRequest)</t>
-  </si>
-  <si>
-    <t>saveRepaymentPlan(com.wanxin.api.transaction.model.ProjectDTO,com.wanxin.api.repayment.model.EqualInterestRepayment)</t>
-  </si>
-  <si>
-    <t>saveReceivablePlan(com.wanxin.repayment.entity.RepaymentPlan,com.wanxin.api.transaction.model.TenderDTO,com.wanxin.api.repayment.model.EqualInterestRepayment)</t>
-  </si>
-  <si>
     <t>4</t>
-  </si>
-  <si>
-    <t>lambda$startRepayment$4(com.wanxin.api.transaction.model.TenderDTO,com.wanxin.api.repayment.model.EqualInterestRepayment,com.wanxin.repayment.entity.RepaymentPlan)</t>
-  </si>
-  <si>
-    <t>lambda$startRepayment$5(java.lang.Integer,com.wanxin.api.transaction.model.ProjectWithTendersDTO,java.util.List,com.wanxin.api.transaction.model.TenderDTO)</t>
-  </si>
-  <si>
-    <t>lambda$saveRepaymentPlan$6(com.wanxin.api.transaction.model.ProjectDTO,java.util.Map,java.util.Map,java.util.List,java.lang.Integer,java.math.BigDecimal)</t>
   </si>
   <si>
     <t>源接口名</t>
@@ -5264,13 +5246,13 @@
         <v>130</v>
       </c>
       <c r="B323" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C323" t="s">
         <v>6</v>
       </c>
       <c r="D323" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="324">
@@ -5278,13 +5260,13 @@
         <v>130</v>
       </c>
       <c r="B324" t="s">
+        <v>133</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
         <v>132</v>
-      </c>
-      <c r="C324" t="s">
-        <v>6</v>
-      </c>
-      <c r="D324" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="325">
@@ -5446,13 +5428,13 @@
         <v>129</v>
       </c>
       <c r="B336" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="C336" t="s">
         <v>6</v>
       </c>
       <c r="D336" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="337">
@@ -5460,13 +5442,13 @@
         <v>129</v>
       </c>
       <c r="B337" t="s">
+        <v>133</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
         <v>132</v>
-      </c>
-      <c r="C337" t="s">
-        <v>6</v>
-      </c>
-      <c r="D337" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="338">
@@ -5513,7 +5495,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B341" t="s">
         <v>5</v>
@@ -5527,7 +5509,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B342" t="s">
         <v>8</v>
@@ -5541,7 +5523,7 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B343" t="s">
         <v>22</v>
@@ -5555,7 +5537,7 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B344" t="s">
         <v>11</v>
@@ -5569,7 +5551,7 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B345" t="s">
         <v>25</v>
@@ -5583,7 +5565,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B346" t="s">
         <v>26</v>
@@ -5597,7 +5579,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B347" t="s">
         <v>16</v>
@@ -5611,7 +5593,7 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B348" t="s">
         <v>27</v>
@@ -5625,7 +5607,7 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B349" t="s">
         <v>18</v>
@@ -5639,10 +5621,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B350" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C350" t="s">
         <v>6</v>
@@ -5653,7 +5635,7 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B351" t="s">
         <v>19</v>
@@ -5667,7 +5649,7 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B352" t="s">
         <v>21</v>
@@ -5681,7 +5663,7 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B353" t="s">
         <v>5</v>
@@ -5695,7 +5677,7 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B354" t="s">
         <v>8</v>
@@ -5709,10 +5691,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B355" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C355" t="s">
         <v>6</v>
@@ -5723,7 +5705,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B356" t="s">
         <v>11</v>
@@ -5737,10 +5719,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B357" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C357" t="s">
         <v>6</v>
@@ -5751,10 +5733,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B358" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C358" t="s">
         <v>6</v>
@@ -5765,7 +5747,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B359" t="s">
         <v>16</v>
@@ -5779,7 +5761,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B360" t="s">
         <v>97</v>
@@ -5793,7 +5775,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B361" t="s">
         <v>18</v>
@@ -5807,7 +5789,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B362" t="s">
         <v>19</v>
@@ -5821,7 +5803,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B363" t="s">
         <v>21</v>
@@ -5835,7 +5817,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B364" t="s">
         <v>106</v>
@@ -5849,10 +5831,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B365" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C365" t="s">
         <v>6</v>
@@ -5863,7 +5845,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B366" t="s">
         <v>22</v>
@@ -5877,10 +5859,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B367" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C367" t="s">
         <v>6</v>
@@ -5891,7 +5873,7 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B368" t="s">
         <v>25</v>
@@ -5905,7 +5887,7 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B369" t="s">
         <v>26</v>
@@ -5919,7 +5901,7 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B370" t="s">
         <v>27</v>
@@ -5933,7 +5915,7 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B371" t="s">
         <v>5</v>
@@ -5947,7 +5929,7 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B372" t="s">
         <v>8</v>
@@ -5961,10 +5943,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B373" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C373" t="s">
         <v>14</v>
@@ -5975,10 +5957,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B374" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C374" t="s">
         <v>6</v>
@@ -5989,10 +5971,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B375" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C375" t="s">
         <v>14</v>
@@ -6003,10 +5985,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B376" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C376" t="s">
         <v>14</v>
@@ -6017,10 +5999,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B377" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C377" t="s">
         <v>14</v>
@@ -6031,10 +6013,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B378" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C378" t="s">
         <v>6</v>
@@ -6045,10 +6027,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B379" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C379" t="s">
         <v>6</v>
@@ -6059,7 +6041,7 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B380" t="s">
         <v>19</v>
@@ -6073,7 +6055,7 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B381" t="s">
         <v>106</v>
@@ -6087,10 +6069,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B382" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C382" t="s">
         <v>14</v>
@@ -6101,10 +6083,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B383" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C383" t="s">
         <v>6</v>
@@ -6115,10 +6097,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B384" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C384" t="s">
         <v>14</v>
@@ -6129,7 +6111,7 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B385" t="s">
         <v>26</v>
@@ -6143,10 +6125,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B386" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C386" t="s">
         <v>14</v>
@@ -6157,10 +6139,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B387" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C387" t="s">
         <v>14</v>
@@ -6171,7 +6153,7 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B388" t="s">
         <v>11</v>
@@ -6185,10 +6167,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B389" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C389" t="s">
         <v>14</v>
@@ -6199,24 +6181,24 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B390" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C390" t="s">
         <v>14</v>
       </c>
       <c r="D390" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B391" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C391" t="s">
         <v>14</v>
@@ -6227,7 +6209,7 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B392" t="s">
         <v>16</v>
@@ -6241,7 +6223,7 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B393" t="s">
         <v>97</v>
@@ -6255,7 +6237,7 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B394" t="s">
         <v>18</v>
@@ -6269,10 +6251,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B395" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C395" t="s">
         <v>14</v>
@@ -6283,7 +6265,7 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B396" t="s">
         <v>21</v>
@@ -6297,7 +6279,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B397" t="s">
         <v>22</v>
@@ -6311,10 +6293,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B398" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C398" t="s">
         <v>14</v>
@@ -6325,10 +6307,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
+        <v>142</v>
+      </c>
+      <c r="B399" t="s">
         <v>141</v>
-      </c>
-      <c r="B399" t="s">
-        <v>140</v>
       </c>
       <c r="C399" t="s">
         <v>6</v>
@@ -6339,7 +6321,7 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B400" t="s">
         <v>25</v>
@@ -6353,7 +6335,7 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B401" t="s">
         <v>27</v>
@@ -6367,21 +6349,21 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B402" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C402" t="s">
         <v>14</v>
       </c>
       <c r="D402" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B403" t="s">
         <v>5</v>
@@ -6395,7 +6377,7 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B404" t="s">
         <v>8</v>
@@ -6409,10 +6391,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B405" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C405" t="s">
         <v>6</v>
@@ -6423,7 +6405,7 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B406" t="s">
         <v>22</v>
@@ -6437,7 +6419,7 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B407" t="s">
         <v>11</v>
@@ -6451,7 +6433,7 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B408" t="s">
         <v>25</v>
@@ -6465,7 +6447,7 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B409" t="s">
         <v>26</v>
@@ -6479,7 +6461,7 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B410" t="s">
         <v>16</v>
@@ -6493,7 +6475,7 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B411" t="s">
         <v>27</v>
@@ -6507,7 +6489,7 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B412" t="s">
         <v>18</v>
@@ -6521,7 +6503,7 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B413" t="s">
         <v>19</v>
@@ -6535,7 +6517,7 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B414" t="s">
         <v>21</v>
@@ -6565,13 +6547,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -6579,7 +6561,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -6593,7 +6575,7 @@
         <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -6607,7 +6589,7 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -6621,7 +6603,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -6635,7 +6617,7 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -6649,7 +6631,7 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -6663,7 +6645,7 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -6677,7 +6659,7 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -6691,7 +6673,7 @@
         <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -6705,7 +6687,7 @@
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -6719,7 +6701,7 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -6733,7 +6715,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -6747,7 +6729,7 @@
         <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -6761,7 +6743,7 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -6775,7 +6757,7 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -6789,7 +6771,7 @@
         <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" t="s">
         <v>14</v>
@@ -6803,7 +6785,7 @@
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -6817,7 +6799,7 @@
         <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C19" t="s">
         <v>14</v>
@@ -6831,7 +6813,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -6845,7 +6827,7 @@
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -6859,7 +6841,7 @@
         <v>76</v>
       </c>
       <c r="B22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -6873,7 +6855,7 @@
         <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -6887,7 +6869,7 @@
         <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
         <v>14</v>
@@ -6901,7 +6883,7 @@
         <v>76</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
         <v>14</v>
@@ -6915,7 +6897,7 @@
         <v>76</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -6929,7 +6911,7 @@
         <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -6943,7 +6925,7 @@
         <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -6957,7 +6939,7 @@
         <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -6971,7 +6953,7 @@
         <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -6985,7 +6967,7 @@
         <v>76</v>
       </c>
       <c r="B31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -6999,7 +6981,7 @@
         <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
@@ -7013,7 +6995,7 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
@@ -7027,7 +7009,7 @@
         <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
@@ -7041,7 +7023,7 @@
         <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
         <v>14</v>
@@ -7055,7 +7037,7 @@
         <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s">
         <v>14</v>
@@ -7069,7 +7051,7 @@
         <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C37" t="s">
         <v>14</v>
@@ -7083,7 +7065,7 @@
         <v>85</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" t="s">
         <v>14</v>
@@ -7097,7 +7079,7 @@
         <v>85</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
         <v>14</v>
@@ -7111,7 +7093,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C40" t="s">
         <v>14</v>
@@ -7125,7 +7107,7 @@
         <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
         <v>14</v>
@@ -7139,13 +7121,13 @@
         <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="43">
@@ -7153,13 +7135,13 @@
         <v>105</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C43" t="s">
         <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44">
@@ -7167,13 +7149,13 @@
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45">
@@ -7181,13 +7163,13 @@
         <v>108</v>
       </c>
       <c r="B45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46">
@@ -7195,7 +7177,7 @@
         <v>108</v>
       </c>
       <c r="B46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -7206,38 +7188,38 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B48" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
         <v>14</v>
@@ -7248,10 +7230,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C50" t="s">
         <v>14</v>
@@ -7262,10 +7244,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C51" t="s">
         <v>14</v>
@@ -7276,10 +7258,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" t="s">
         <v>14</v>
@@ -7290,10 +7272,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C53" t="s">
         <v>14</v>
@@ -7304,10 +7286,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
         <v>14</v>
@@ -7318,16 +7300,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -7345,13 +7327,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -7359,16 +7341,16 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -7386,19 +7368,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
@@ -7415,7 +7397,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3">
@@ -7432,7 +7414,7 @@
         <v>63</v>
       </c>
       <c r="E3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="4">
@@ -7449,7 +7431,7 @@
         <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
@@ -7466,7 +7448,7 @@
         <v>65</v>
       </c>
       <c r="E5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
@@ -7483,7 +7465,7 @@
         <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
@@ -7500,7 +7482,7 @@
         <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
@@ -7517,7 +7499,7 @@
         <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
@@ -7534,7 +7516,7 @@
         <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10">
@@ -7551,7 +7533,7 @@
         <v>53</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -7568,7 +7550,7 @@
         <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12">
@@ -7585,7 +7567,7 @@
         <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13">
@@ -7602,7 +7584,7 @@
         <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14">
@@ -7619,7 +7601,7 @@
         <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15">
@@ -7636,7 +7618,7 @@
         <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16">
@@ -7653,7 +7635,7 @@
         <v>60</v>
       </c>
       <c r="E16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -7670,7 +7652,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18">
@@ -7687,7 +7669,7 @@
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19">
@@ -7704,7 +7686,7 @@
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
@@ -7721,7 +7703,7 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21">
@@ -7738,7 +7720,7 @@
         <v>49</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22">
@@ -7755,7 +7737,7 @@
         <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
@@ -7772,7 +7754,7 @@
         <v>53</v>
       </c>
       <c r="E23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
@@ -7789,7 +7771,7 @@
         <v>41</v>
       </c>
       <c r="E24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25">
@@ -7806,7 +7788,7 @@
         <v>50</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="26">
@@ -7823,7 +7805,7 @@
         <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27">
@@ -7840,7 +7822,7 @@
         <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="28">
@@ -7857,7 +7839,7 @@
         <v>58</v>
       </c>
       <c r="E28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29">
@@ -7874,7 +7856,7 @@
         <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
@@ -7891,7 +7873,7 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31">
@@ -7908,7 +7890,7 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32">
@@ -7925,7 +7907,7 @@
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
@@ -7942,7 +7924,7 @@
         <v>54</v>
       </c>
       <c r="E33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="34">
@@ -7959,7 +7941,7 @@
         <v>49</v>
       </c>
       <c r="E34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35">
@@ -7976,7 +7958,7 @@
         <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36">
@@ -7993,7 +7975,7 @@
         <v>53</v>
       </c>
       <c r="E36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37">
@@ -8010,7 +7992,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="38">
@@ -8027,7 +8009,7 @@
         <v>50</v>
       </c>
       <c r="E38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="39">
@@ -8044,7 +8026,7 @@
         <v>61</v>
       </c>
       <c r="E39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40">
@@ -8061,7 +8043,7 @@
         <v>68</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41">
@@ -8078,7 +8060,7 @@
         <v>58</v>
       </c>
       <c r="E41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="42">
@@ -8095,7 +8077,7 @@
         <v>60</v>
       </c>
       <c r="E42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43">
@@ -8112,7 +8094,7 @@
         <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44">
@@ -8129,7 +8111,7 @@
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45">
@@ -8146,7 +8128,7 @@
         <v>75</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="46">
@@ -8163,7 +8145,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47">
@@ -8180,7 +8162,7 @@
         <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48">
@@ -8197,7 +8179,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49">
@@ -8214,7 +8196,7 @@
         <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
@@ -8231,7 +8213,7 @@
         <v>50</v>
       </c>
       <c r="E50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
@@ -8248,7 +8230,7 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52">
@@ -8265,7 +8247,7 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="53">
@@ -8282,7 +8264,7 @@
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54">
@@ -8299,7 +8281,7 @@
         <v>50</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55">
@@ -8316,7 +8298,7 @@
         <v>73</v>
       </c>
       <c r="E55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56">
@@ -8333,7 +8315,7 @@
         <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57">
@@ -8350,7 +8332,7 @@
         <v>51</v>
       </c>
       <c r="E57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58">
@@ -8367,7 +8349,7 @@
         <v>65</v>
       </c>
       <c r="E58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="59">
@@ -8384,7 +8366,7 @@
         <v>56</v>
       </c>
       <c r="E59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60">
@@ -8401,7 +8383,7 @@
         <v>84</v>
       </c>
       <c r="E60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61">
@@ -8418,7 +8400,7 @@
         <v>77</v>
       </c>
       <c r="E61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62">
@@ -8435,7 +8417,7 @@
         <v>70</v>
       </c>
       <c r="E62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63">
@@ -8452,7 +8434,7 @@
         <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64">
@@ -8469,7 +8451,7 @@
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="65">
@@ -8486,7 +8468,7 @@
         <v>50</v>
       </c>
       <c r="E65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="66">
@@ -8503,7 +8485,7 @@
         <v>79</v>
       </c>
       <c r="E66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67">
@@ -8520,7 +8502,7 @@
         <v>81</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="68">
@@ -8537,7 +8519,7 @@
         <v>58</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69">
@@ -8554,7 +8536,7 @@
         <v>60</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70">
@@ -8571,7 +8553,7 @@
         <v>51</v>
       </c>
       <c r="E70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71">
@@ -8588,7 +8570,7 @@
         <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72">
@@ -8605,7 +8587,7 @@
         <v>56</v>
       </c>
       <c r="E72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73">
@@ -8622,7 +8604,7 @@
         <v>84</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="74">
@@ -8639,7 +8621,7 @@
         <v>77</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75">
@@ -8656,7 +8638,7 @@
         <v>70</v>
       </c>
       <c r="E75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76">
@@ -8673,7 +8655,7 @@
         <v>53</v>
       </c>
       <c r="E76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="77">
@@ -8690,7 +8672,7 @@
         <v>41</v>
       </c>
       <c r="E77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78">
@@ -8707,7 +8689,7 @@
         <v>50</v>
       </c>
       <c r="E78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79">
@@ -8724,7 +8706,7 @@
         <v>79</v>
       </c>
       <c r="E79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="80">
@@ -8741,7 +8723,7 @@
         <v>81</v>
       </c>
       <c r="E80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
@@ -8758,7 +8740,7 @@
         <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="82">
@@ -8775,7 +8757,7 @@
         <v>60</v>
       </c>
       <c r="E82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83">
@@ -8792,7 +8774,7 @@
         <v>51</v>
       </c>
       <c r="E83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84">
@@ -8809,7 +8791,7 @@
         <v>65</v>
       </c>
       <c r="E84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="85">
@@ -8826,7 +8808,7 @@
         <v>56</v>
       </c>
       <c r="E85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="86">
@@ -8843,7 +8825,7 @@
         <v>84</v>
       </c>
       <c r="E86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="87">
@@ -8860,7 +8842,7 @@
         <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="88">
@@ -8877,7 +8859,7 @@
         <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="89">
@@ -8894,7 +8876,7 @@
         <v>53</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90">
@@ -8911,7 +8893,7 @@
         <v>41</v>
       </c>
       <c r="E90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="91">
@@ -8928,7 +8910,7 @@
         <v>50</v>
       </c>
       <c r="E91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="92">
@@ -8945,7 +8927,7 @@
         <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93">
@@ -8962,7 +8944,7 @@
         <v>81</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94">
@@ -8979,7 +8961,7 @@
         <v>58</v>
       </c>
       <c r="E94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95">
@@ -8996,7 +8978,7 @@
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96">
@@ -9013,7 +8995,7 @@
         <v>63</v>
       </c>
       <c r="E96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
@@ -9030,7 +9012,7 @@
         <v>51</v>
       </c>
       <c r="E97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98">
@@ -9047,7 +9029,7 @@
         <v>86</v>
       </c>
       <c r="E98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99">
@@ -9064,7 +9046,7 @@
         <v>50</v>
       </c>
       <c r="E99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="100">
@@ -9081,7 +9063,7 @@
         <v>91</v>
       </c>
       <c r="E100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101">
@@ -9098,7 +9080,7 @@
         <v>93</v>
       </c>
       <c r="E101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102">
@@ -9115,7 +9097,7 @@
         <v>92</v>
       </c>
       <c r="E102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="103">
@@ -9132,7 +9114,7 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104">
@@ -9149,7 +9131,7 @@
         <v>86</v>
       </c>
       <c r="E104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="105">
@@ -9166,7 +9148,7 @@
         <v>50</v>
       </c>
       <c r="E105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106">
@@ -9183,7 +9165,7 @@
         <v>91</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107">
@@ -9200,7 +9182,7 @@
         <v>93</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="108">
@@ -9217,7 +9199,7 @@
         <v>92</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="109">
@@ -9234,7 +9216,7 @@
         <v>51</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="110">
@@ -9251,7 +9233,7 @@
         <v>86</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111">
@@ -9268,7 +9250,7 @@
         <v>50</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="112">
@@ -9285,7 +9267,7 @@
         <v>91</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="113">
@@ -9302,7 +9284,7 @@
         <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="114">
@@ -9319,7 +9301,7 @@
         <v>92</v>
       </c>
       <c r="E114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="115">
@@ -9330,13 +9312,13 @@
         <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="116">
@@ -9353,7 +9335,7 @@
         <v>103</v>
       </c>
       <c r="E116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="117">
@@ -9364,13 +9346,13 @@
         <v>103</v>
       </c>
       <c r="C117" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D117" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118">
@@ -9387,7 +9369,7 @@
         <v>103</v>
       </c>
       <c r="E118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119">
@@ -9398,13 +9380,13 @@
         <v>109</v>
       </c>
       <c r="C119" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D119" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="E119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="120">
@@ -9421,7 +9403,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="121">
@@ -9438,7 +9420,7 @@
         <v>68</v>
       </c>
       <c r="E121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="122">
@@ -9455,7 +9437,7 @@
         <v>114</v>
       </c>
       <c r="E122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="123">
@@ -9472,7 +9454,7 @@
         <v>117</v>
       </c>
       <c r="E123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="124">
@@ -9489,7 +9471,7 @@
         <v>116</v>
       </c>
       <c r="E124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="125">
@@ -9506,7 +9488,7 @@
         <v>117</v>
       </c>
       <c r="E125" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126">
@@ -9523,7 +9505,7 @@
         <v>121</v>
       </c>
       <c r="E126" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="127">
@@ -9540,7 +9522,7 @@
         <v>116</v>
       </c>
       <c r="E127" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="128">
@@ -9557,7 +9539,7 @@
         <v>114</v>
       </c>
       <c r="E128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129">
@@ -9574,7 +9556,7 @@
         <v>117</v>
       </c>
       <c r="E129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="130">
@@ -9591,7 +9573,7 @@
         <v>113</v>
       </c>
       <c r="E130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="131">
@@ -9608,7 +9590,7 @@
         <v>118</v>
       </c>
       <c r="E131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132">
@@ -9625,7 +9607,7 @@
         <v>121</v>
       </c>
       <c r="E132" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133">
@@ -9642,7 +9624,7 @@
         <v>119</v>
       </c>
       <c r="E133" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="134">
@@ -9659,7 +9641,7 @@
         <v>120</v>
       </c>
       <c r="E134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="135">
@@ -9676,7 +9658,7 @@
         <v>126</v>
       </c>
       <c r="E135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="136">
@@ -9693,32 +9675,32 @@
         <v>121</v>
       </c>
       <c r="E136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B137" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C137" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D137" t="s">
         <v>97</v>
       </c>
       <c r="E137" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
         <v>112</v>
@@ -9727,32 +9709,32 @@
         <v>124</v>
       </c>
       <c r="E138" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D139" t="s">
-        <v>215</v>
+        <v>156</v>
       </c>
       <c r="E139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>76</v>
@@ -9761,15 +9743,15 @@
         <v>83</v>
       </c>
       <c r="E140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C141" t="s">
         <v>76</v>
@@ -9778,15 +9760,15 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" t="s">
         <v>71</v>
@@ -9795,15 +9777,15 @@
         <v>72</v>
       </c>
       <c r="E142" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
         <v>76</v>
@@ -9812,15 +9794,15 @@
         <v>50</v>
       </c>
       <c r="E143" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>71</v>
@@ -9829,15 +9811,15 @@
         <v>64</v>
       </c>
       <c r="E144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B145" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C145" t="s">
         <v>71</v>
@@ -9846,15 +9828,15 @@
         <v>74</v>
       </c>
       <c r="E145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C146" t="s">
         <v>76</v>
@@ -9863,15 +9845,15 @@
         <v>80</v>
       </c>
       <c r="E146" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C147" t="s">
         <v>40</v>
@@ -9880,15 +9862,15 @@
         <v>70</v>
       </c>
       <c r="E147" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B148" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
         <v>76</v>
@@ -9897,15 +9879,15 @@
         <v>48</v>
       </c>
       <c r="E148" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B149" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C149" t="s">
         <v>76</v>
@@ -9914,15 +9896,15 @@
         <v>46</v>
       </c>
       <c r="E149" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B150" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C150" t="s">
         <v>76</v>
@@ -9931,15 +9913,15 @@
         <v>66</v>
       </c>
       <c r="E150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B151" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C151" t="s">
         <v>40</v>
@@ -9948,15 +9930,15 @@
         <v>51</v>
       </c>
       <c r="E151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B152" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C152" t="s">
         <v>76</v>
@@ -9965,15 +9947,15 @@
         <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B153" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C153" t="s">
         <v>76</v>
@@ -9982,15 +9964,15 @@
         <v>57</v>
       </c>
       <c r="E153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B154" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C154" t="s">
         <v>76</v>
@@ -9999,15 +9981,15 @@
         <v>44</v>
       </c>
       <c r="E154" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C155" t="s">
         <v>76</v>
@@ -10016,15 +9998,15 @@
         <v>53</v>
       </c>
       <c r="E155" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B156" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C156" t="s">
         <v>76</v>
@@ -10033,15 +10015,15 @@
         <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B157" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C157" t="s">
         <v>76</v>
@@ -10050,15 +10032,15 @@
         <v>64</v>
       </c>
       <c r="E157" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B158" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C158" t="s">
         <v>40</v>
@@ -10067,15 +10049,15 @@
         <v>61</v>
       </c>
       <c r="E158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B159" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C159" t="s">
         <v>76</v>
@@ -10084,15 +10066,15 @@
         <v>78</v>
       </c>
       <c r="E159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B160" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C160" t="s">
         <v>76</v>
@@ -10101,15 +10083,15 @@
         <v>83</v>
       </c>
       <c r="E160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B161" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C161" t="s">
         <v>76</v>
@@ -10118,15 +10100,15 @@
         <v>67</v>
       </c>
       <c r="E161" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B162" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C162" t="s">
         <v>76</v>
@@ -10135,49 +10117,49 @@
         <v>69</v>
       </c>
       <c r="E162" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B163" t="s">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="C163" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D163" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="E163" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B164" t="s">
-        <v>213</v>
+        <v>138</v>
       </c>
       <c r="C164" t="s">
         <v>130</v>
       </c>
       <c r="D164" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E164" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B165" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C165" t="s">
         <v>40</v>
@@ -10186,15 +10168,15 @@
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B166" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C166" t="s">
         <v>85</v>
@@ -10203,15 +10185,15 @@
         <v>87</v>
       </c>
       <c r="E166" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B167" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C167" t="s">
         <v>40</v>
@@ -10220,15 +10202,15 @@
         <v>50</v>
       </c>
       <c r="E167" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B168" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C168" t="s">
         <v>85</v>
@@ -10237,15 +10219,15 @@
         <v>64</v>
       </c>
       <c r="E168" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B169" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C169" t="s">
         <v>85</v>
@@ -10254,15 +10236,15 @@
         <v>90</v>
       </c>
       <c r="E169" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B170" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C170" t="s">
         <v>85</v>
@@ -10271,15 +10253,15 @@
         <v>88</v>
       </c>
       <c r="E170" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C171" t="s">
         <v>85</v>
@@ -10288,15 +10270,15 @@
         <v>89</v>
       </c>
       <c r="E171" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B172" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C172" t="s">
         <v>40</v>
@@ -10305,15 +10287,15 @@
         <v>51</v>
       </c>
       <c r="E172" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B173" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="C173" t="s">
         <v>40</v>
@@ -10322,15 +10304,15 @@
         <v>45</v>
       </c>
       <c r="E173" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B174" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="C174" t="s">
         <v>112</v>
@@ -10339,66 +10321,66 @@
         <v>124</v>
       </c>
       <c r="E174" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B175" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C175" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D175" t="s">
         <v>97</v>
       </c>
       <c r="E175" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B176" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C176" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D176" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E176" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B177" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C177" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D177" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E177" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B178" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C178" t="s">
         <v>85</v>
@@ -10407,66 +10389,66 @@
         <v>93</v>
       </c>
       <c r="E178" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
+        <v>142</v>
+      </c>
+      <c r="B179" t="s">
+        <v>148</v>
+      </c>
+      <c r="C179" t="s">
+        <v>142</v>
+      </c>
+      <c r="D179" t="s">
         <v>141</v>
       </c>
-      <c r="B179" t="s">
-        <v>147</v>
-      </c>
-      <c r="C179" t="s">
-        <v>141</v>
-      </c>
-      <c r="D179" t="s">
-        <v>140</v>
-      </c>
       <c r="E179" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B180" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C180" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D180" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E180" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B181" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C181" t="s">
         <v>105</v>
       </c>
       <c r="D181" t="s">
-        <v>214</v>
+        <v>106</v>
       </c>
       <c r="E181" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B182" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C182" t="s">
         <v>40</v>
@@ -10475,15 +10457,15 @@
         <v>55</v>
       </c>
       <c r="E182" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B183" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C183" t="s">
         <v>40</v>
@@ -10492,15 +10474,15 @@
         <v>46</v>
       </c>
       <c r="E183" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B184" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C184" t="s">
         <v>40</v>
@@ -10509,15 +10491,15 @@
         <v>66</v>
       </c>
       <c r="E184" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B185" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C185" t="s">
         <v>40</v>
@@ -10526,15 +10508,15 @@
         <v>43</v>
       </c>
       <c r="E185" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C186" t="s">
         <v>40</v>
@@ -10543,15 +10525,15 @@
         <v>48</v>
       </c>
       <c r="E186" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B187" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C187" t="s">
         <v>40</v>
@@ -10560,15 +10542,15 @@
         <v>57</v>
       </c>
       <c r="E187" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B188" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C188" t="s">
         <v>40</v>
@@ -10577,15 +10559,15 @@
         <v>44</v>
       </c>
       <c r="E188" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B189" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C189" t="s">
         <v>40</v>
@@ -10594,15 +10576,15 @@
         <v>41</v>
       </c>
       <c r="E189" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C190" t="s">
         <v>40</v>
@@ -10611,15 +10593,15 @@
         <v>53</v>
       </c>
       <c r="E190" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B191" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C191" t="s">
         <v>40</v>
@@ -10628,15 +10610,15 @@
         <v>64</v>
       </c>
       <c r="E191" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B192" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C192" t="s">
         <v>40</v>
@@ -10645,15 +10627,15 @@
         <v>47</v>
       </c>
       <c r="E192" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C193" t="s">
         <v>40</v>
@@ -10662,15 +10644,15 @@
         <v>45</v>
       </c>
       <c r="E193" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B194" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C194" t="s">
         <v>40</v>
@@ -10679,15 +10661,15 @@
         <v>67</v>
       </c>
       <c r="E194" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B195" t="s">
-        <v>220</v>
+        <v>149</v>
       </c>
       <c r="C195" t="s">
         <v>40</v>
@@ -10696,15 +10678,15 @@
         <v>69</v>
       </c>
       <c r="E195" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B196" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C196" t="s">
         <v>76</v>
@@ -10713,15 +10695,15 @@
         <v>56</v>
       </c>
       <c r="E196" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B197" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C197" t="s">
         <v>76</v>
@@ -10730,15 +10712,15 @@
         <v>60</v>
       </c>
       <c r="E197" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B198" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C198" t="s">
         <v>76</v>
@@ -10747,15 +10729,15 @@
         <v>41</v>
       </c>
       <c r="E198" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B199" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C199" t="s">
         <v>76</v>
@@ -10764,15 +10746,15 @@
         <v>53</v>
       </c>
       <c r="E199" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B200" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C200" t="s">
         <v>40</v>
@@ -10781,15 +10763,15 @@
         <v>51</v>
       </c>
       <c r="E200" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B201" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C201" t="s">
         <v>40</v>
@@ -10798,15 +10780,15 @@
         <v>50</v>
       </c>
       <c r="E201" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B202" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C202" t="s">
         <v>40</v>
@@ -10815,15 +10797,15 @@
         <v>60</v>
       </c>
       <c r="E202" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B203" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C203" t="s">
         <v>40</v>
@@ -10832,12 +10814,12 @@
         <v>49</v>
       </c>
       <c r="E203" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B204" t="s">
         <v>97</v>
@@ -10849,66 +10831,66 @@
         <v>97</v>
       </c>
       <c r="E204" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B205" t="s">
         <v>97</v>
       </c>
       <c r="C205" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D205" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E205" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s">
+        <v>142</v>
+      </c>
+      <c r="B206" t="s">
         <v>141</v>
       </c>
-      <c r="B206" t="s">
-        <v>140</v>
-      </c>
       <c r="C206" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D206" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E206" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="s">
+        <v>142</v>
+      </c>
+      <c r="B207" t="s">
         <v>141</v>
-      </c>
-      <c r="B207" t="s">
-        <v>140</v>
       </c>
       <c r="C207" t="s">
         <v>130</v>
       </c>
       <c r="D207" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E207" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B208" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C208" t="s">
         <v>40</v>
@@ -10917,15 +10899,15 @@
         <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B209" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C209" t="s">
         <v>40</v>
@@ -10934,15 +10916,15 @@
         <v>49</v>
       </c>
       <c r="E209" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B210" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C210" t="s">
         <v>40</v>
@@ -10951,15 +10933,15 @@
         <v>56</v>
       </c>
       <c r="E210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B211" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C211" t="s">
         <v>40</v>
@@ -10968,7 +10950,7 @@
         <v>51</v>
       </c>
       <c r="E211" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -10986,36 +10968,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" t="s">
         <v>136</v>
       </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -11033,19 +11015,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11063,19 +11045,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11093,19 +11075,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -11123,19 +11105,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B1" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
